--- a/src/api/Docs/populate.xlsx
+++ b/src/api/Docs/populate.xlsx
@@ -11,10 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
-  <si>
-    <t>Table 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>id</t>
   </si>
@@ -40,31 +37,91 @@
     <t>author</t>
   </si>
   <si>
+    <t>Sean001</t>
+  </si>
+  <si>
+    <t>Team up</t>
+  </si>
+  <si>
+    <t>work, labor, team, recruits, helper, free_lancer, demo, shared, community</t>
+  </si>
+  <si>
+    <t>A website for free lancers to team up and get a project temporarily</t>
+  </si>
+  <si>
+    <t>Sean cheng</t>
+  </si>
+  <si>
+    <t>Sean002</t>
+  </si>
+  <si>
+    <t>Public account</t>
+  </si>
+  <si>
+    <t>Shared, managements, open_source, privacy,demo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Similar to yopmail that you can use use for testing and for privacy. Or the fake phone number girls give to guys. </t>
+  </si>
+  <si>
     <t>Sean003</t>
   </si>
   <si>
-    <t>Team up</t>
-  </si>
-  <si>
-    <t>work, labor, team, recruits, helper, free_lancer, demo</t>
-  </si>
-  <si>
-    <t>A website for free lancers to team up and get a project temporarily</t>
-  </si>
-  <si>
-    <t>Sean cheng</t>
-  </si>
-  <si>
-    <t>Sean004</t>
-  </si>
-  <si>
-    <t>Public account</t>
-  </si>
-  <si>
-    <t>share, managements, open_source, privacy,demo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Similar to yopmail that you can use use for testing and for privacy. Or the fake phone number girls give to guys. </t>
+    <t>Dumbies</t>
+  </si>
+  <si>
+    <t>Dumb, Zombies, idiocracy, comedy, pun, sci-fi</t>
+  </si>
+  <si>
+    <t>Human become dumber and dumber, eventually becomes zombie like creature</t>
+  </si>
+  <si>
+    <t>sean004</t>
+  </si>
+  <si>
+    <t>Neighborhood breakfast group</t>
+  </si>
+  <si>
+    <t>Community, food, breakfast, shared, helper</t>
+  </si>
+  <si>
+    <t>To save time and add variety of the breakfast, set up a potluck like service</t>
+  </si>
+  <si>
+    <t>sean005</t>
+  </si>
+  <si>
+    <t>Cat-as-trophy</t>
+  </si>
+  <si>
+    <t>Catastrophe, pun, word, merch, trophy</t>
+  </si>
+  <si>
+    <t>A trophy for cat or bad events</t>
+  </si>
+  <si>
+    <t>sean006</t>
+  </si>
+  <si>
+    <t>Freelancer pipelines</t>
+  </si>
+  <si>
+    <t>free_lancer, work, labor, shared, outsource, pyramid</t>
+  </si>
+  <si>
+    <t>A network of freelancers, each person has queues, and can outsource down one level to other free lancer to hep digest the workload, with minimum commission (can only be passed down one level)</t>
+  </si>
+  <si>
+    <t>Sean007</t>
+  </si>
+  <si>
+    <t>Share knowledges</t>
+  </si>
+  <si>
+    <t>Handcraft, community, decentralized, skill, knowledge, movement</t>
+  </si>
+  <si>
+    <t>Each person in the group shares whatever knowledge they have with others, with a short sessions. For example, gold welding, jewelry making, plant, construction, fix car, solder, welding.</t>
   </si>
 </sst>
 </file>
@@ -74,7 +131,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -86,13 +143,18 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,6 +173,12 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -231,56 +299,53 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -304,6 +369,7 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -320,10 +386,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -500,11 +566,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:srgbClr val="000000"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -513,34 +582,34 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue Medium"/>
-            <a:ea typeface="Helvetica Neue Medium"/>
-            <a:cs typeface="Helvetica Neue Medium"/>
-            <a:sym typeface="Helvetica Neue Medium"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -788,12 +857,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1084,7 +1153,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1365,11 +1434,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:H11"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="C3" xSplit="2" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
@@ -1377,158 +1444,193 @@
     <col min="9" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
+    <row r="1" ht="14.7" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="2">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
+    <row r="2" ht="50.7" customHeight="1">
       <c r="A2" t="s" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="3">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s" s="3">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s" s="3">
         <v>8</v>
       </c>
+      <c r="B2" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" t="s" s="7">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" ht="56.25" customHeight="1">
-      <c r="A3" t="s" s="4">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s" s="5">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" t="s" s="8">
+    <row r="3" ht="74.7" customHeight="1">
+      <c r="A3" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s" s="9">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s" s="10">
+        <v>15</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" t="s" s="8">
-        <v>13</v>
-      </c>
     </row>
-    <row r="4" ht="80.05" customHeight="1">
-      <c r="A4" t="s" s="9">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s" s="10">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s" s="11">
-        <v>16</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" t="s" s="13">
+    <row r="4" ht="62.7" customHeight="1">
+      <c r="A4" t="s" s="8">
         <v>17</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" t="s" s="13">
-        <v>13</v>
+      <c r="B4" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s" s="10">
+        <v>19</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" t="s" s="12">
+        <v>12</v>
       </c>
     </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+    <row r="5" ht="50.7" customHeight="1">
+      <c r="A5" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s" s="9">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s" s="10">
+        <v>23</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" t="s" s="12">
+        <v>24</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" t="s" s="12">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
+    <row r="6" ht="26.7" customHeight="1">
+      <c r="A6" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s" s="9">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s" s="10">
+        <v>27</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" t="s" s="12">
+        <v>28</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" t="s" s="12">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+    <row r="7" ht="146.7" customHeight="1">
+      <c r="A7" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" t="s" s="12">
+        <v>32</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" t="s" s="12">
+        <v>12</v>
+      </c>
     </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
+    <row r="8" ht="134.7" customHeight="1">
+      <c r="A8" t="s" s="8">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s" s="9">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" t="s" s="12">
+        <v>36</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" t="s" s="12">
+        <v>12</v>
+      </c>
     </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+    <row r="9" ht="14.7" customHeight="1">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
     </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+    <row r="10" ht="14.7" customHeight="1">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>

--- a/src/api/Docs/populate.xlsx
+++ b/src/api/Docs/populate.xlsx
@@ -11,9 +11,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
-  <si>
-    <t>id</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+  <si>
+    <t>author</t>
   </si>
   <si>
     <t>idea</t>
@@ -34,10 +34,7 @@
     <t>note</t>
   </si>
   <si>
-    <t>author</t>
-  </si>
-  <si>
-    <t>Sean001</t>
+    <t>Sean cheng</t>
   </si>
   <si>
     <t>Team up</t>
@@ -49,12 +46,6 @@
     <t>A website for free lancers to team up and get a project temporarily</t>
   </si>
   <si>
-    <t>Sean cheng</t>
-  </si>
-  <si>
-    <t>Sean002</t>
-  </si>
-  <si>
     <t>Public account</t>
   </si>
   <si>
@@ -64,9 +55,6 @@
     <t xml:space="preserve">Similar to yopmail that you can use use for testing and for privacy. Or the fake phone number girls give to guys. </t>
   </si>
   <si>
-    <t>Sean003</t>
-  </si>
-  <si>
     <t>Dumbies</t>
   </si>
   <si>
@@ -76,9 +64,6 @@
     <t>Human become dumber and dumber, eventually becomes zombie like creature</t>
   </si>
   <si>
-    <t>sean004</t>
-  </si>
-  <si>
     <t>Neighborhood breakfast group</t>
   </si>
   <si>
@@ -88,9 +73,6 @@
     <t>To save time and add variety of the breakfast, set up a potluck like service</t>
   </si>
   <si>
-    <t>sean005</t>
-  </si>
-  <si>
     <t>Cat-as-trophy</t>
   </si>
   <si>
@@ -100,9 +82,6 @@
     <t>A trophy for cat or bad events</t>
   </si>
   <si>
-    <t>sean006</t>
-  </si>
-  <si>
     <t>Freelancer pipelines</t>
   </si>
   <si>
@@ -110,9 +89,6 @@
   </si>
   <si>
     <t>A network of freelancers, each person has queues, and can outsource down one level to other free lancer to hep digest the workload, with minimum commission (can only be passed down one level)</t>
-  </si>
-  <si>
-    <t>Sean007</t>
   </si>
   <si>
     <t>Share knowledges</t>
@@ -299,7 +275,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -309,43 +285,34 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -368,8 +335,8 @@
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1434,14 +1401,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="8" width="16.3516" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.7" customHeight="1">
@@ -1466,169 +1433,143 @@
       <c r="G1" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>7</v>
-      </c>
     </row>
     <row r="2" ht="50.7" customHeight="1">
       <c r="A2" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s" s="4">
         <v>8</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="C2" t="s" s="5">
         <v>9</v>
-      </c>
-      <c r="C2" t="s" s="5">
-        <v>10</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-      <c r="F2" t="s" s="7">
-        <v>11</v>
+      <c r="F2" t="s" s="3">
+        <v>10</v>
       </c>
       <c r="G2" s="6"/>
-      <c r="H2" t="s" s="7">
-        <v>12</v>
-      </c>
     </row>
     <row r="3" ht="74.7" customHeight="1">
-      <c r="A3" t="s" s="8">
+      <c r="A3" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="B3" t="s" s="9">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s" s="10">
-        <v>15</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="G3" s="11"/>
-      <c r="H3" t="s" s="12">
-        <v>12</v>
-      </c>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" ht="62.7" customHeight="1">
-      <c r="A4" t="s" s="8">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s" s="9">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" t="s" s="12">
-        <v>20</v>
-      </c>
-      <c r="G4" s="11"/>
-      <c r="H4" t="s" s="12">
-        <v>12</v>
-      </c>
+      <c r="A4" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="8">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" t="s" s="7">
+        <v>16</v>
+      </c>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" ht="50.7" customHeight="1">
-      <c r="A5" t="s" s="8">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" t="s" s="12">
-        <v>24</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="H5" t="s" s="12">
-        <v>12</v>
-      </c>
+      <c r="A5" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s" s="8">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" t="s" s="7">
+        <v>19</v>
+      </c>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" ht="26.7" customHeight="1">
-      <c r="A6" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s" s="9">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s" s="10">
-        <v>27</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" t="s" s="12">
-        <v>28</v>
-      </c>
-      <c r="G6" s="11"/>
-      <c r="H6" t="s" s="12">
-        <v>12</v>
-      </c>
+      <c r="A6" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s" s="8">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s" s="9">
+        <v>21</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" t="s" s="7">
+        <v>22</v>
+      </c>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" ht="146.7" customHeight="1">
-      <c r="A7" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s" s="9">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s" s="10">
-        <v>31</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" t="s" s="12">
-        <v>32</v>
-      </c>
-      <c r="G7" s="11"/>
-      <c r="H7" t="s" s="12">
-        <v>12</v>
-      </c>
+      <c r="A7" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s" s="8">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s" s="9">
+        <v>24</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" ht="134.7" customHeight="1">
-      <c r="A8" t="s" s="8">
-        <v>33</v>
-      </c>
-      <c r="B8" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C8" t="s" s="10">
-        <v>35</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" t="s" s="12">
-        <v>36</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="H8" t="s" s="12">
-        <v>12</v>
-      </c>
+      <c r="A8" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s" s="8">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s" s="9">
+        <v>27</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" ht="14.7" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" ht="14.7" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
